--- a/final_data_pipeline/output/311313longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311313longform_elec_options_nowhp.xlsx
@@ -597,7 +597,7 @@
         <v>45</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -612,10 +612,10 @@
         <v>1033540.390911294</v>
       </c>
       <c r="N2">
-        <v>1.424052774018944</v>
+        <v>1.523070892784755</v>
       </c>
       <c r="O2">
-        <v>1.509252539912917</v>
+        <v>1.622381208625714</v>
       </c>
       <c r="P2">
         <v>129.1925488639118</v>
@@ -650,7 +650,7 @@
         <v>46</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -797,7 +797,7 @@
         <v>46</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>17.72453703703706</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -844,7 +844,7 @@
         <v>45</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -859,10 +859,10 @@
         <v>1999.58903506598</v>
       </c>
       <c r="N7">
-        <v>1.424052774018944</v>
+        <v>1.32738293362297</v>
       </c>
       <c r="O7">
-        <v>1.509252539912917</v>
+        <v>1.399902772843707</v>
       </c>
       <c r="P7">
         <v>0.2499486293832475</v>
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -944,7 +944,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -959,10 +959,10 @@
         <v>329553.7431346105</v>
       </c>
       <c r="N9">
-        <v>0.9194563882063882</v>
+        <v>0.9359630391213685</v>
       </c>
       <c r="O9">
-        <v>0.940668567807351</v>
+        <v>0.9581010400034263</v>
       </c>
       <c r="P9">
         <v>41.19421789182632</v>
@@ -997,7 +997,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1044,7 +1044,7 @@
         <v>46</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>-3.083333333333334</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1091,7 +1091,7 @@
         <v>46</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1138,7 +1138,7 @@
         <v>46</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J13">
         <v>8000</v>
@@ -1185,7 +1185,7 @@
         <v>45</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J14">
         <v>8000</v>
@@ -1200,10 +1200,10 @@
         <v>13584.38203503639</v>
       </c>
       <c r="N14">
-        <v>0.9194563882063882</v>
+        <v>0.9337049960039765</v>
       </c>
       <c r="O14">
-        <v>0.940668567807351</v>
+        <v>0.9557151767570068</v>
       </c>
       <c r="P14">
         <v>1.698047754379549</v>
@@ -1238,7 +1238,7 @@
         <v>46</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1579,7 +1579,7 @@
         <v>45</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J22">
         <v>8000</v>
@@ -1594,10 +1594,10 @@
         <v>296480.9719889741</v>
       </c>
       <c r="N22">
-        <v>0.9194563882063882</v>
+        <v>0.9359630391213685</v>
       </c>
       <c r="O22">
-        <v>0.940668567807351</v>
+        <v>0.9581010400034263</v>
       </c>
       <c r="P22">
         <v>37.06012149862176</v>
@@ -1632,7 +1632,7 @@
         <v>46</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J23">
         <v>8000</v>
@@ -1879,7 +1879,7 @@
         <v>45</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J28">
         <v>8000</v>
@@ -1894,10 +1894,10 @@
         <v>860858.965189144</v>
       </c>
       <c r="N28">
-        <v>1.424052774018944</v>
+        <v>1.473592088566053</v>
       </c>
       <c r="O28">
-        <v>1.509252539912917</v>
+        <v>1.565708370582976</v>
       </c>
       <c r="P28">
         <v>107.607370648643</v>
@@ -1932,7 +1932,7 @@
         <v>46</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J29">
         <v>8000</v>
@@ -1979,7 +1979,7 @@
         <v>46</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J30">
         <v>8000</v>
@@ -2273,7 +2273,7 @@
         <v>45</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2288,10 +2288,10 @@
         <v>11175.27744273596</v>
       </c>
       <c r="N36">
-        <v>0.9194563882063882</v>
+        <v>0.9337049960039765</v>
       </c>
       <c r="O36">
-        <v>0.940668567807351</v>
+        <v>0.9557151767570068</v>
       </c>
       <c r="P36">
         <v>1.396909680341995</v>
@@ -2326,7 +2326,7 @@
         <v>46</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J37">
         <v>8000</v>
